--- a/biology/Zoologie/Howard_Kay_Gloyd/Howard_Kay_Gloyd.xlsx
+++ b/biology/Zoologie/Howard_Kay_Gloyd/Howard_Kay_Gloyd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Howard Kay Gloyd est un herpétologiste américain, né le 12 février 1902 à De Soto (Kansas) et mort le 7 août 1978 à Tucson.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son intérêt pour la nature est encouragé par sa mère et il est, à douze ans, un taxidermiste accompli. Il fait ses études à l’université d'État du Kansas durant un an et obtient à l’université d'Ottawa son Bachelor of Sciences en 1924. Il enseigne la biologie dans cette université jusqu’en 1927, année où il part enseigner la zoologie à la faculté d’agriculture de l’université du Kansas. En 1928, il fait paraître The Amphibians and Reptiles of Franklin County, Kansas. En 1929, il obtient son Master of Sciences dans cette école avec une thèse sur la reproduction du serpent Agkistrodon contortrix.
 Il séjourne durant l’été 1925 à la station biologique de l’université du Michigan et y rencontre Frank Nelson Blanchard (1888-1937). Ce dernier dirigera son doctorat qui porte sur les crotales. En 1936, il devient le directeur de l’Academy of Sciences de Chicago, fonction qu’il conserve jusqu’en 1958. Il fait paraître en 1938 Snakes of the genus “Tantilla” in the United States.
